--- a/Management Chart.xlsx
+++ b/Management Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuji\Documents\Upenn\MUSA\MUSA801\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0F908F-2D3A-4CB5-BD4F-CF3A8B52E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A4284-102F-4778-A0CD-EEE2AB55518C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{763C74A6-14BF-4070-86DB-37ADF446F94D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{763C74A6-14BF-4070-86DB-37ADF446F94D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">Biophysical fator data </t>
   </si>
   <si>
-    <t>Social factor data</t>
-  </si>
-  <si>
     <t>Fishnet building/ Land cover</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Social factor data +Clissified Landcover</t>
   </si>
 </sst>
 </file>
@@ -254,49 +254,49 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,283 +622,288 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" customWidth="1"/>
-    <col min="2" max="2" width="34.265625" customWidth="1"/>
-    <col min="4" max="19" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.47265625" customWidth="1"/>
+    <col min="2" max="2" width="34.26171875" customWidth="1"/>
+    <col min="4" max="19" width="3.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="21" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="P3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7">
+        <v>28</v>
+      </c>
+      <c r="J6" s="7">
+        <v>7</v>
+      </c>
+      <c r="K6" s="7">
+        <v>14</v>
+      </c>
+      <c r="L6" s="7">
+        <v>21</v>
+      </c>
+      <c r="M6" s="7">
+        <v>28</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4</v>
+      </c>
+      <c r="O6" s="7">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="13"/>
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="22"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="13"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="13"/>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="14"/>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="13"/>
+      <c r="B17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="14">
-        <v>31</v>
-      </c>
-      <c r="F6" s="14">
-        <v>7</v>
-      </c>
-      <c r="G6" s="14">
-        <v>14</v>
-      </c>
-      <c r="H6" s="14">
-        <v>21</v>
-      </c>
-      <c r="I6" s="14">
-        <v>28</v>
-      </c>
-      <c r="J6" s="14">
-        <v>7</v>
-      </c>
-      <c r="K6" s="14">
-        <v>14</v>
-      </c>
-      <c r="L6" s="14">
-        <v>21</v>
-      </c>
-      <c r="M6" s="14">
-        <v>28</v>
-      </c>
-      <c r="N6" s="14">
-        <v>4</v>
-      </c>
-      <c r="O6" s="14">
-        <v>11</v>
-      </c>
-      <c r="P6" s="14">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
-      <c r="B11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="18"/>
-      <c r="B19" s="15" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13"/>
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A19"/>
@@ -907,11 +912,6 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
